--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1882631701780549</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.14423991382161</v>
+        <v>-2.139878980982862</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05960301133660437</v>
+        <v>-0.06112293366306053</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2226055320388763</v>
+        <v>-0.2250208179187987</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1610477484634073</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.292481744225902</v>
+        <v>-2.291314965971283</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0509732436812961</v>
+        <v>-0.05495297609707717</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2285736058608561</v>
+        <v>-0.2314951259024793</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1367531493445961</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.531873170166808</v>
+        <v>-2.533588267109824</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.055006649116631</v>
+        <v>-0.05720480323563101</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2780278040936189</v>
+        <v>-0.2815726630668786</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1142907375432999</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.757344376502293</v>
+        <v>-2.76059708347139</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.008828334838682041</v>
+        <v>-0.01103441792647977</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2993207448395703</v>
+        <v>-0.3058109107608464</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08812632088475221</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.955420995641639</v>
+        <v>-2.956918960823732</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05250223881171893</v>
+        <v>0.05035104858482853</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3245263267268605</v>
+        <v>-0.3295996469160509</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06043367789012642</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.955899783372886</v>
+        <v>-2.956808565181241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2609511689798422</v>
+        <v>0.2599466296252381</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3507504761443201</v>
+        <v>-0.3558207467301267</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0340502165944915</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.978404026582859</v>
+        <v>-2.979149349649845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4065300857094524</v>
+        <v>0.4068222377136148</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3859081337141084</v>
+        <v>-0.3884063688060684</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01036602776620206</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.731750885064591</v>
+        <v>-2.7335159955031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6132889256823069</v>
+        <v>0.6114128096806298</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.401969174894915</v>
+        <v>-0.4039752040007393</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01280314928156418</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.374254419278191</v>
+        <v>-2.377155202016805</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7117331725128271</v>
+        <v>0.7113592911379806</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3925178440880271</v>
+        <v>-0.3942152533314169</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03834834793075239</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.004610773293677</v>
+        <v>-2.008798488660229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8008120873518809</v>
+        <v>0.8024045902388701</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3527601647742049</v>
+        <v>-0.3549638081792957</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06998054014359226</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.541014946262892</v>
+        <v>-1.544905630259868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7622346045475663</v>
+        <v>0.7643961634259614</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3049118876833198</v>
+        <v>-0.3063793568315756</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1134541993305909</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.100788229961709</v>
+        <v>-1.101764712965183</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6250969899841492</v>
+        <v>0.6285052267258173</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2336365573985417</v>
+        <v>-0.2341604792598683</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1755384417730803</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6121240531959026</v>
+        <v>-0.611193314243185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3600120456145548</v>
+        <v>0.3651506273161572</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.115850506066987</v>
+        <v>-0.1163847965798183</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2584685414415035</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1149276960830672</v>
+        <v>-0.1136834579025012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04596327923630299</v>
+        <v>0.05407461431637542</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003545125930505811</v>
+        <v>0.004966851028005534</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3564320948681901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4050241915585615</v>
+        <v>0.4105397042383941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3096497515002987</v>
+        <v>-0.2993396523805495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0862863550174706</v>
+        <v>0.09024961957497948</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4606091705848621</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8469385583723064</v>
+        <v>0.8536141401793138</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7160209908765505</v>
+        <v>-0.704399562301793</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237472275395642</v>
+        <v>0.2284875310392501</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5681907486125496</v>
       </c>
       <c r="E18" t="n">
-        <v>1.412474087632055</v>
+        <v>1.421372220385132</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.064136876654565</v>
+        <v>-1.051879300813959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.342837899198683</v>
+        <v>0.3497922147549643</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6799172348118854</v>
       </c>
       <c r="E19" t="n">
-        <v>1.777125532877386</v>
+        <v>1.789320896808963</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.418519697386166</v>
+        <v>-1.408703024093906</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4935871135050864</v>
+        <v>0.501724675174259</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7958679764646983</v>
       </c>
       <c r="E20" t="n">
-        <v>2.068810337801317</v>
+        <v>2.082945249484953</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.698778248351899</v>
+        <v>-1.689843520358216</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6252372717398013</v>
+        <v>0.6339823144030149</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9125292841173698</v>
       </c>
       <c r="E21" t="n">
-        <v>2.395568021320968</v>
+        <v>2.411711401793135</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.105830159203401</v>
+        <v>-2.100386617163425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7771002012019467</v>
+        <v>0.7880708444146141</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.024521149365099</v>
       </c>
       <c r="E22" t="n">
-        <v>2.650113536396355</v>
+        <v>2.669583424239507</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.416405427327573</v>
+        <v>-2.410620329708618</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8681747764953203</v>
+        <v>0.8812490361220916</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.127478296240809</v>
       </c>
       <c r="E23" t="n">
-        <v>2.911884171808501</v>
+        <v>2.929571871434195</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.785413535966915</v>
+        <v>-2.782851259203897</v>
       </c>
       <c r="G23" t="n">
-        <v>1.020086499611605</v>
+        <v>1.033777998963246</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.219815437415538</v>
       </c>
       <c r="E24" t="n">
-        <v>3.09247802466954</v>
+        <v>3.109525307584649</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.026957676936403</v>
+        <v>-3.027389805735879</v>
       </c>
       <c r="G24" t="n">
-        <v>1.1445158069543</v>
+        <v>1.158380523778137</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.299954129706308</v>
       </c>
       <c r="E25" t="n">
-        <v>3.273035282289975</v>
+        <v>3.290209428705847</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.29527001656701</v>
+        <v>-3.297844186783225</v>
       </c>
       <c r="G25" t="n">
-        <v>1.243325396270192</v>
+        <v>1.256093475717236</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.366536701148234</v>
       </c>
       <c r="E26" t="n">
-        <v>3.324716300913545</v>
+        <v>3.341862390978287</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.495906472786667</v>
+        <v>-3.502631458168492</v>
       </c>
       <c r="G26" t="n">
-        <v>1.305589758476695</v>
+        <v>1.320549892835971</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.418411761762151</v>
       </c>
       <c r="E27" t="n">
-        <v>3.401623638727415</v>
+        <v>3.419508952652375</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.728664096486923</v>
+        <v>-3.739001642037126</v>
       </c>
       <c r="G27" t="n">
-        <v>1.39380380579612</v>
+        <v>1.409304329874995</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.455583400999146</v>
       </c>
       <c r="E28" t="n">
-        <v>3.405644235828538</v>
+        <v>3.420902011478067</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.914928076919351</v>
+        <v>-3.923558759455674</v>
       </c>
       <c r="G28" t="n">
-        <v>1.448668610352315</v>
+        <v>1.464066667757496</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.477207574067505</v>
       </c>
       <c r="E29" t="n">
-        <v>3.416081198449051</v>
+        <v>3.431247485997068</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.013206730286134</v>
+        <v>-4.021830703695013</v>
       </c>
       <c r="G29" t="n">
-        <v>1.530380903257605</v>
+        <v>1.547471490540763</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.483015113074519</v>
       </c>
       <c r="E30" t="n">
-        <v>3.390057103013564</v>
+        <v>3.404597611947238</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.054221761075072</v>
+        <v>-4.065655334081391</v>
       </c>
       <c r="G30" t="n">
-        <v>1.583975243044134</v>
+        <v>1.601114014060754</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.475469364449035</v>
       </c>
       <c r="E31" t="n">
-        <v>3.389799716487977</v>
+        <v>3.402116454634227</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.114879897179359</v>
+        <v>-4.12611799060878</v>
       </c>
       <c r="G31" t="n">
-        <v>1.559571096926091</v>
+        <v>1.576419545700579</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.457242556486412</v>
       </c>
       <c r="E32" t="n">
-        <v>3.320395622839462</v>
+        <v>3.332351287945077</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.096355691345505</v>
+        <v>-4.10538922648882</v>
       </c>
       <c r="G32" t="n">
-        <v>1.543467971218589</v>
+        <v>1.561736925249223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.429838743239978</v>
       </c>
       <c r="E33" t="n">
-        <v>3.205073041121293</v>
+        <v>3.215219681499673</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.048229290426023</v>
+        <v>-4.06033835058184</v>
       </c>
       <c r="G33" t="n">
-        <v>1.471476594059308</v>
+        <v>1.487468104282966</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.39486755605759</v>
       </c>
       <c r="E34" t="n">
-        <v>3.167856901267479</v>
+        <v>3.178342657542132</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.896425523269522</v>
+        <v>-3.908084766926238</v>
       </c>
       <c r="G34" t="n">
-        <v>1.398870416857866</v>
+        <v>1.41429043140741</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.354473992952364</v>
       </c>
       <c r="E35" t="n">
-        <v>3.079969771430791</v>
+        <v>3.08800120690221</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.794188179750305</v>
+        <v>-3.804043887965877</v>
       </c>
       <c r="G35" t="n">
-        <v>1.37724811894647</v>
+        <v>1.392651665637743</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.309515678550938</v>
       </c>
       <c r="E36" t="n">
-        <v>2.963598126148615</v>
+        <v>2.972887218055488</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.680907002537212</v>
+        <v>-3.690457140493733</v>
       </c>
       <c r="G36" t="n">
-        <v>1.309065696413482</v>
+        <v>1.32446253397731</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.260514704025072</v>
       </c>
       <c r="E37" t="n">
-        <v>2.863249097044611</v>
+        <v>2.873809263641827</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.567429430866205</v>
+        <v>-3.57688503111783</v>
       </c>
       <c r="G37" t="n">
-        <v>1.221064511410242</v>
+        <v>1.236572354537238</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.208780662943757</v>
       </c>
       <c r="E38" t="n">
-        <v>2.788932702265567</v>
+        <v>2.797870479862633</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.42244610167744</v>
+        <v>-3.430868496302653</v>
       </c>
       <c r="G38" t="n">
-        <v>1.15453497391124</v>
+        <v>1.169853131707768</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.155131399452581</v>
       </c>
       <c r="E39" t="n">
-        <v>2.626871899088194</v>
+        <v>2.633349256675258</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.225331022484987</v>
+        <v>-3.234198659204227</v>
       </c>
       <c r="G39" t="n">
-        <v>1.076637734839009</v>
+        <v>1.090853156051976</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.099695191816564</v>
       </c>
       <c r="E40" t="n">
-        <v>2.532844087878007</v>
+        <v>2.534365230045816</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.094479250416136</v>
+        <v>-3.101296638780487</v>
       </c>
       <c r="G40" t="n">
-        <v>1.008999361549679</v>
+        <v>1.023197095063021</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.043966726049378</v>
       </c>
       <c r="E41" t="n">
-        <v>2.379140417813435</v>
+        <v>2.38112753937828</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.938817125058526</v>
+        <v>-2.943773950398458</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9091370491457198</v>
+        <v>0.9203278737226932</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9888983978751587</v>
       </c>
       <c r="E42" t="n">
-        <v>2.139572724796949</v>
+        <v>2.140912720523765</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.886464583769857</v>
+        <v>-2.890952990030046</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8493379863146332</v>
+        <v>0.8605727251803325</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9342324087283524</v>
       </c>
       <c r="E43" t="n">
-        <v>1.9357201568488</v>
+        <v>1.93377329004862</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.786660823750865</v>
+        <v>-2.788989500894689</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7732729489553527</v>
+        <v>0.7835013187044176</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.880398283653154</v>
       </c>
       <c r="E44" t="n">
-        <v>1.683513077648064</v>
+        <v>1.680830646511726</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.672054898827875</v>
+        <v>-2.675690026061293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7610409897831704</v>
+        <v>0.7701934594584517</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8279430461839057</v>
       </c>
       <c r="E45" t="n">
-        <v>1.473535076343333</v>
+        <v>1.469802361801635</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.640884902642665</v>
+        <v>-2.642186473366845</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6861262628202366</v>
+        <v>0.693922878831107</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7765029752199605</v>
       </c>
       <c r="E46" t="n">
-        <v>1.242500783515229</v>
+        <v>1.239650624192785</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.550801448449007</v>
+        <v>-2.550536132954622</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5898484542335255</v>
+        <v>0.5955213264479592</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7257096932186454</v>
       </c>
       <c r="E47" t="n">
-        <v>1.063574453784419</v>
+        <v>1.061911200098927</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.501044729560578</v>
+        <v>-2.500293307286824</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5188067235679419</v>
+        <v>0.5239270076492418</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6756674361385036</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8778011545364348</v>
+        <v>0.8773851886348927</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.429829171502121</v>
+        <v>-2.427671272147786</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4290709241600304</v>
+        <v>0.4332635188919965</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6261809016164004</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7121790245275299</v>
+        <v>0.7105115013973008</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.330290726977514</v>
+        <v>-2.328441447485615</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3492926897207076</v>
+        <v>0.3517134648867207</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5770291387004544</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5532440648184908</v>
+        <v>0.5492179784312768</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.273832199692977</v>
+        <v>-2.27180421344279</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3075314209837681</v>
+        <v>0.3104322037223819</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5293920655983761</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3621534771106172</v>
+        <v>0.3571179720033852</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.216837552133578</v>
+        <v>-2.213837962245331</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2185043494022379</v>
+        <v>0.2200102435531288</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4836497869982083</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2388458138924623</v>
+        <v>0.2341756512706025</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.161254261020174</v>
+        <v>-2.158061936198075</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1780214744037623</v>
+        <v>0.1802909892419418</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4397678710382912</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04835843773389262</v>
+        <v>0.04316496317138291</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.088494993728868</v>
+        <v>-2.086707316225319</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1361437108175639</v>
+        <v>0.1366035910078319</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3981128086616769</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1595452233492179</v>
+        <v>-0.1649448511004684</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.965069005899424</v>
+        <v>-1.963072735524428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07559566539543064</v>
+        <v>0.07513334552245561</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3590501245270433</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2679781411028411</v>
+        <v>-0.274601879652325</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.928050480344877</v>
+        <v>-1.92549552262998</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04501119305989928</v>
+        <v>0.04485017400123779</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3223589595802102</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4105410000859322</v>
+        <v>-0.4161547099947213</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.906850247541791</v>
+        <v>-1.904530719208119</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06688302453426918</v>
+        <v>-0.06886648657505387</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2877381390823287</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5240923721588251</v>
+        <v>-0.5321732112050601</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.816908294945139</v>
+        <v>-1.814971186875787</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08973675229201893</v>
+        <v>-0.09140915478766209</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2553158730116492</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7171395853977064</v>
+        <v>-0.7234083501133229</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.777656849793018</v>
+        <v>-1.774472453939716</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1386822766803738</v>
+        <v>-0.1405766903023533</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.225113462084493</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8319553230334981</v>
+        <v>-0.8398141509533968</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.753025813183224</v>
+        <v>-1.748277580714741</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2140581036749291</v>
+        <v>-0.2158244339547915</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1974283456750445</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9485953334134433</v>
+        <v>-0.9573422058386871</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.69239176894567</v>
+        <v>-1.68996855409695</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2399474066408539</v>
+        <v>-0.2422766937053547</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1728898427723546</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.135720216881101</v>
+        <v>-1.14493123894135</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.620839534673648</v>
+        <v>-1.615945531163421</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2820160753988744</v>
+        <v>-0.2861415788563983</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1517378562997979</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.254164982543543</v>
+        <v>-1.263252190706413</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.540924068082057</v>
+        <v>-1.536490554682775</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3319777276346916</v>
+        <v>-0.3358098592466996</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1338536496227729</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.347299869882972</v>
+        <v>-1.356228498669887</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.559758418580037</v>
+        <v>-1.555540817100324</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.399236120342407</v>
+        <v>-0.4035513091303994</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1186848960695997</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.496252257875676</v>
+        <v>-1.507241198708645</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.493568606897984</v>
+        <v>-1.488534931552782</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4377074769489674</v>
+        <v>-0.4416304867418109</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1054871596688512</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.703605160587683</v>
+        <v>-1.715732823324141</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.450811947616592</v>
+        <v>-1.443846043567452</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4705700030121528</v>
+        <v>-0.4743911560519794</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.09324507581087439</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.822012111168167</v>
+        <v>-1.83632572961009</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.421608945613895</v>
+        <v>-1.415438378127235</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.522777993100433</v>
+        <v>-0.5278629017824816</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.0812598708039932</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.991022960457084</v>
+        <v>-2.006511896043101</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.392679188074381</v>
+        <v>-1.386556804321184</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5529733360441992</v>
+        <v>-0.5578459923307394</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.06919607070167984</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.158965228720338</v>
+        <v>-2.176118027912524</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.347926258417992</v>
+        <v>-1.342749861634431</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6063627424833404</v>
+        <v>-0.6113433547296651</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.05657691218684376</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.23658678364668</v>
+        <v>-2.253677370929837</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.349711496238834</v>
+        <v>-1.343776358133398</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6506252959156237</v>
+        <v>-0.6542933588655866</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.04313767547068155</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.341831646022941</v>
+        <v>-2.358764873771498</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.284004131812089</v>
+        <v>-1.276100779682787</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.659424621519068</v>
+        <v>-0.6638703333318846</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.02977278707954353</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.434807344065738</v>
+        <v>-2.455221389116496</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.227460215632806</v>
+        <v>-1.222249053370671</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7178690505270972</v>
+        <v>-0.7232333028790963</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.01839303913804216</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.436026575498558</v>
+        <v>-2.457053590829447</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.227809090259906</v>
+        <v>-1.22194165334959</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.767833752366298</v>
+        <v>-0.7731473813021271</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.01055014818518536</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.436454129892958</v>
+        <v>-2.457757439290414</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.158647745040737</v>
+        <v>-1.153374370869573</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.761556448761207</v>
+        <v>-0.7678959642753264</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.006861852441293031</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.441529889764856</v>
+        <v>-2.463729782557131</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.192429421563782</v>
+        <v>-1.187729372828761</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7959376773094951</v>
+        <v>-0.8020466428078036</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.007367288264273353</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.336483861529214</v>
+        <v>-2.361221024336762</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.112173009313889</v>
+        <v>-1.110043776231361</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.772789357864876</v>
+        <v>-0.7785610372289429</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.01148462728489777</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.225639927340406</v>
+        <v>-2.250719865568286</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.121000391268463</v>
+        <v>-1.115741655193542</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7712322303771382</v>
+        <v>-0.7763604434272359</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.01814497467368157</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.076552136957464</v>
+        <v>-2.103127600684731</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.013789754551043</v>
+        <v>-1.008594450226503</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7417651327214093</v>
+        <v>-0.7465706977335073</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.02651344827204331</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.895500843588864</v>
+        <v>-1.922378827971797</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9958678453854782</v>
+        <v>-0.9887488512464748</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7118076588415749</v>
+        <v>-0.716712031003306</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.03556119363787111</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.680465380032538</v>
+        <v>-1.705994219878505</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9335302926977662</v>
+        <v>-0.9258391929639732</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6703806266354934</v>
+        <v>-0.6758138000239651</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04405248583108538</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.486125744879628</v>
+        <v>-1.508848949612553</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8207937746490086</v>
+        <v>-0.8124610383632767</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6209660732467192</v>
+        <v>-0.6256917386501631</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05129857184071273</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.210359259698145</v>
+        <v>-1.233957700602204</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7210869920176198</v>
+        <v>-0.7121321366416049</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5582534193428071</v>
+        <v>-0.5639787447354411</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.05785895699724206</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9134895191011785</v>
+        <v>-0.9373368076413509</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6958063898870896</v>
+        <v>-0.6884385481119731</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4967313305999073</v>
+        <v>-0.5015887388695288</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0646705956953732</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6984693035617716</v>
+        <v>-0.7196609974753829</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5596641658681254</v>
+        <v>-0.5525909157798782</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4376623428188881</v>
+        <v>-0.4427405423734924</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.0723588763002468</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.432903131778223</v>
+        <v>-0.4547096257339963</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4636516727757996</v>
+        <v>-0.4580812672350595</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3882624275263559</v>
+        <v>-0.3932125437388431</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.08105277931732084</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.185574198150118</v>
+        <v>-0.2055710574579798</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3380952320224746</v>
+        <v>-0.3334006725735448</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3586861540694891</v>
+        <v>-0.3632904452582602</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09048682173082508</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04753504482028274</v>
+        <v>0.02616159454500055</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.281448239248822</v>
+        <v>-0.2798398784242374</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3099961864446916</v>
+        <v>-0.3155019403936963</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09913420956537813</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2549178336454504</v>
+        <v>0.2360877525922076</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1835742682510611</v>
+        <v>-0.1795737985322706</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2532802726345664</v>
+        <v>-0.2563359752250742</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1047236934196242</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4581818281405384</v>
+        <v>0.4419323214706167</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1354557963003766</v>
+        <v>-0.1321481964703719</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1741180580787592</v>
+        <v>-0.1747700632822029</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1051096058125037</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6515809656099034</v>
+        <v>0.6347428854869197</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.01300629147440624</v>
+        <v>-0.009972546028261397</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1558552032548921</v>
+        <v>-0.1560150024722001</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09854133743613251</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8500814796195891</v>
+        <v>0.8361832171585311</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04206588611188291</v>
+        <v>0.04487213114560072</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09473871176202975</v>
+        <v>-0.09392568749992458</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08498137674787444</v>
       </c>
       <c r="E91" t="n">
-        <v>1.040099216857063</v>
+        <v>1.028444852565761</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1350897678881432</v>
+        <v>0.1349921805798635</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08051414173891154</v>
+        <v>-0.0786087495447506</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06521528247785256</v>
       </c>
       <c r="E92" t="n">
-        <v>1.13340122246192</v>
+        <v>1.124806830205863</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2647107200313172</v>
+        <v>0.2645582398621302</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07536702114783467</v>
+        <v>-0.07367205158715182</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04183254193468645</v>
       </c>
       <c r="E93" t="n">
-        <v>1.270998107294929</v>
+        <v>1.261559584822252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.361907069157211</v>
+        <v>0.3641582863750881</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0718886435283405</v>
+        <v>-0.06935137351306858</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01724227585891103</v>
       </c>
       <c r="E94" t="n">
-        <v>1.355107998380516</v>
+        <v>1.348021939958057</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4379971132642382</v>
+        <v>0.4408314146490864</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.112560593936608</v>
+        <v>-0.1083429924568952</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.007207014235491554</v>
       </c>
       <c r="E95" t="n">
-        <v>1.352914113706253</v>
+        <v>1.349111258286729</v>
       </c>
       <c r="F95" t="n">
-        <v>0.515008137593155</v>
+        <v>0.5174594087930054</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1282355553290331</v>
+        <v>-0.124328403473785</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03066737759313257</v>
       </c>
       <c r="E96" t="n">
-        <v>1.337094601113439</v>
+        <v>1.33265864803145</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5931963088281955</v>
+        <v>0.5958970375848359</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1044273017121726</v>
+        <v>-0.1005518657321155</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05304310446984489</v>
       </c>
       <c r="E97" t="n">
-        <v>1.305849584684989</v>
+        <v>1.302507829297087</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6084461555089272</v>
+        <v>0.609761144487996</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1004884339817337</v>
+        <v>-0.09778648538373978</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07649124576660292</v>
       </c>
       <c r="E98" t="n">
-        <v>1.244120732832672</v>
+        <v>1.241948805302772</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6219260123857361</v>
+        <v>0.6248853475093177</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1461025716336907</v>
+        <v>-0.1422173769228056</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1028257590494872</v>
       </c>
       <c r="E99" t="n">
-        <v>1.142958679466562</v>
+        <v>1.141607705167565</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5864884012253204</v>
+        <v>0.5872971560426883</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1746120938269252</v>
+        <v>-0.1705134268791782</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1362941321285393</v>
       </c>
       <c r="E100" t="n">
-        <v>1.119651170725312</v>
+        <v>1.119506009604246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5592676414220545</v>
+        <v>0.5603978244360688</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1857065509369723</v>
+        <v>-0.1814328367549987</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1731886032182526</v>
       </c>
       <c r="E101" t="n">
-        <v>1.078759648873415</v>
+        <v>1.077062849550702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5340815769964202</v>
+        <v>0.5339913087362615</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2161922161228705</v>
+        <v>-0.2125241531729077</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2151481948821012</v>
       </c>
       <c r="E102" t="n">
-        <v>1.035664483616428</v>
+        <v>1.034389749402024</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5348878921310812</v>
+        <v>0.5333673598839483</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2117361356585492</v>
+        <v>-0.208340097330416</v>
       </c>
     </row>
   </sheetData>
